--- a/doc/log/log_201608040210_houjie.xlsx
+++ b/doc/log/log_201608040210_houjie.xlsx
@@ -1,40 +1,391 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="20145" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+  <si>
+    <t>日期</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,18 +393,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,42 +989,64 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040210_houjie.xlsx
+++ b/doc/log/log_201608040210_houjie.xlsx
@@ -16,9 +16,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
-    <t>日期</t>
+    <t>周次</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>周一晚七点到九点</t>
+  </si>
+  <si>
+    <t>上传日志模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周二晚七点到九点
+</t>
+  </si>
+  <si>
+    <t>更改日志信息</t>
+  </si>
+  <si>
+    <t>周三晚七点到九点</t>
+  </si>
+  <si>
+    <t>周四晚七点到九点</t>
+  </si>
+  <si>
+    <t>周五晚七点到九点</t>
   </si>
 </sst>
 </file>
@@ -26,32 +54,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,34 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -108,21 +93,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -146,12 +116,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -170,7 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +184,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,7 +198,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,25 +221,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,25 +365,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,127 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +412,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,38 +496,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,194 +512,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -995,24 +1019,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A2" s="2">
         <v>10</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:5">
+      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:5">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:5">
+      <c r="A6" s="3">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="3">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="3">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="3">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1"/>
+    <row r="13" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/log/log_201608040210_houjie.xlsx
+++ b/doc/log/log_201608040210_houjie.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>周次</t>
   </si>
@@ -43,10 +43,25 @@
     <t>周三晚七点到九点</t>
   </si>
   <si>
+    <t>尝试添加实体类，着手代码</t>
+  </si>
+  <si>
     <t>周四晚七点到九点</t>
   </si>
   <si>
+    <t>敲代码</t>
+  </si>
+  <si>
     <t>周五晚七点到九点</t>
+  </si>
+  <si>
+    <t>环境出现错误，重新配置，成功</t>
+  </si>
+  <si>
+    <t>周二整个下午</t>
+  </si>
+  <si>
+    <t>尝试完善实体类，</t>
   </si>
 </sst>
 </file>
@@ -54,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +80,73 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,10 +166,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,29 +197,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,63 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +236,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,7 +296,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,13 +362,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,25 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,115 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +427,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,24 +471,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,37 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,146 +545,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1019,130 +1031,119 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" s="1" customFormat="1" ht="27" spans="1:3">
+      <c r="A2" s="1">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:5">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:3">
+      <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="27" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:3">
+      <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="27" spans="1:5">
-      <c r="A5" s="3">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:3">
+      <c r="A5" s="1">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="27" spans="1:5">
-      <c r="A6" s="3">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:3">
+      <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="3">
+    <row r="7" s="1" customFormat="1" ht="54" spans="1:3">
+      <c r="A7" s="1">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="3">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:3">
+      <c r="A8" s="1">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="3">
+    <row r="9" s="1" customFormat="1" spans="1:1">
+      <c r="A9" s="1">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="3">
+    <row r="10" s="1" customFormat="1" spans="1:1">
+      <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="3">
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1"/>
     <row r="13" s="1" customFormat="1"/>

--- a/doc/log/log_201608040210_houjie.xlsx
+++ b/doc/log/log_201608040210_houjie.xlsx
@@ -58,7 +58,7 @@
     <t>环境出现错误，重新配置，成功</t>
   </si>
   <si>
-    <t>周二整个下午</t>
+    <t>周四晚上</t>
   </si>
   <si>
     <t>尝试完善实体类，</t>
@@ -70,8 +70,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -91,29 +91,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,24 +113,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,25 +145,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,6 +188,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -208,20 +222,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,16 +431,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +469,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -488,55 +527,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/doc/log/log_201608040210_houjie.xlsx
+++ b/doc/log/log_201608040210_houjie.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
-  <si>
-    <t>周次</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>日期</t>
   </si>
   <si>
     <t>时间</t>
@@ -27,41 +27,49 @@
     <t>内容</t>
   </si>
   <si>
-    <t>周一晚七点到九点</t>
-  </si>
-  <si>
-    <t>上传日志模板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周二晚七点到九点
-</t>
-  </si>
-  <si>
-    <t>更改日志信息</t>
-  </si>
-  <si>
-    <t>周三晚七点到九点</t>
+    <t>12:00-14:00</t>
+  </si>
+  <si>
+    <t>上传日志模板，更改日志信息</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
   </si>
   <si>
     <t>尝试添加实体类，着手代码</t>
   </si>
   <si>
-    <t>周四晚七点到九点</t>
+    <t>15:30-17:30</t>
   </si>
   <si>
     <t>敲代码</t>
   </si>
   <si>
-    <t>周五晚七点到九点</t>
+    <t>20:00-22:00</t>
   </si>
   <si>
     <t>环境出现错误，重新配置，成功</t>
   </si>
   <si>
-    <t>周四晚上</t>
-  </si>
-  <si>
     <t>尝试完善实体类，</t>
+  </si>
+  <si>
+    <t>15:28-17:30</t>
+  </si>
+  <si>
+    <t>完善service内容</t>
+  </si>
+  <si>
+    <t>21:00-22:00</t>
+  </si>
+  <si>
+    <t>对添加内容进行修改</t>
+  </si>
+  <si>
+    <t>14:30-16:00</t>
+  </si>
+  <si>
+    <t>web页面展示</t>
   </si>
 </sst>
 </file>
@@ -69,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,6 +99,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -99,7 +114,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,7 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,53 +174,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,24 +204,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,60 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,7 +457,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +506,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,143 +553,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1031,15 +1045,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="26.125" style="2"/>
+    <col min="2" max="2" width="26.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1054,99 +1071,108 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="1:3">
-      <c r="A2" s="1">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3">
+        <v>43238</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:3">
-      <c r="A3" s="1">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:3">
+      <c r="A3" s="3">
+        <v>43240</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:3">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="3">
+        <v>43241</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="27" spans="1:3">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="3">
+        <v>43242</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="27" spans="1:3">
-      <c r="A6" s="1">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="3">
+        <v>43252</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="54" spans="1:3">
-      <c r="A7" s="1">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:3">
+      <c r="A7" s="3">
+        <v>43253</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="3">
+        <v>43256</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="27" spans="1:3">
-      <c r="A8" s="1">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="3">
+        <v>43258</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="1">
-        <v>11</v>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="3">
+        <v>43265</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="1">
-        <v>11</v>
-      </c>
+    <row r="11" s="1" customFormat="1"/>
+    <row r="12" s="1" customFormat="1" spans="2:2">
+      <c r="B12" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/log/log_201608040210_houjie.xlsx
+++ b/doc/log/log_201608040210_houjie.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>日期</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>web页面展示</t>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+  </si>
+  <si>
+    <t>下载Jenkins，，配置环境</t>
+  </si>
+  <si>
+    <t>13：00-16:30</t>
+  </si>
+  <si>
+    <t>完善界面显示信息，解决表格不能双击编辑问题</t>
   </si>
 </sst>
 </file>
@@ -77,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,19 +104,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -114,9 +143,84 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,108 +232,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +447,62 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,48 +524,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -511,40 +547,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,7 +565,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,124 +574,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="3">
         <v>43238</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="27" spans="1:3">
+    <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3">
         <v>43240</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="27" spans="1:3">
+    <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="3">
         <v>43253</v>
       </c>
@@ -1169,9 +1181,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1" spans="2:2">
-      <c r="B12" s="2"/>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="3">
+        <v>43270</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:3">
+      <c r="A12" s="3">
+        <v>43271</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
